--- a/LubanTools/DesignerConfigs/Datas/玩家配置表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/玩家配置表.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21555" windowHeight="11670"/>
+    <workbookView windowWidth="21555" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="玩家等级配置表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="玩家等级表" sheetId="1" r:id="rId1"/>
+    <sheet name="玩家基础属性表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>##var</t>
   </si>
@@ -78,6 +78,30 @@
   </si>
   <si>
     <t>升级经验</t>
+  </si>
+  <si>
+    <t>hp_base</t>
+  </si>
+  <si>
+    <t>spd_base</t>
+  </si>
+  <si>
+    <t>atk_base</t>
+  </si>
+  <si>
+    <t>def_base</t>
+  </si>
+  <si>
+    <t>血量初始值</t>
+  </si>
+  <si>
+    <t>速度初始值</t>
+  </si>
+  <si>
+    <t>攻击初始值</t>
+  </si>
+  <si>
+    <t>防御初始值</t>
   </si>
 </sst>
 </file>
@@ -114,16 +138,15 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -275,7 +298,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,12 +337,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -369,12 +386,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,79 +642,79 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -712,16 +723,22 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,19 +747,19 @@
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,29 +768,26 @@
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1124,8 +1138,8 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1189,122 +1203,122 @@
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:3">
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>65</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="2:3">
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>75</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="2:3">
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>85</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="2:3">
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>95</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="2:3">
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:3">
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>110</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="2:3">
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="2:3">
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>130</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="2:3">
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>135</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="2:3">
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>140</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="2:3">
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>145</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="2:3">
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>150</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="2:3">
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>160</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="2:3">
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>165</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="2:3">
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>15</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>170</v>
       </c>
     </row>
@@ -1319,14 +1333,113 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="2:5">
+      <c r="B7" s="3">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/LubanTools/DesignerConfigs/Datas/玩家配置表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/玩家配置表.xlsx
@@ -8,8 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="玩家等级表" sheetId="1" r:id="rId1"/>
-    <sheet name="玩家基础属性表" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>##var</t>
   </si>
@@ -79,30 +78,6 @@
   <si>
     <t>升级经验</t>
   </si>
-  <si>
-    <t>hp_base</t>
-  </si>
-  <si>
-    <t>spd_base</t>
-  </si>
-  <si>
-    <t>atk_base</t>
-  </si>
-  <si>
-    <t>def_base</t>
-  </si>
-  <si>
-    <t>血量初始值</t>
-  </si>
-  <si>
-    <t>速度初始值</t>
-  </si>
-  <si>
-    <t>攻击初始值</t>
-  </si>
-  <si>
-    <t>防御初始值</t>
-  </si>
 </sst>
 </file>
 
@@ -114,7 +89,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,12 +110,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -636,10 +605,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,33 +617,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,110 +656,104 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1203,122 +1169,122 @@
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:3">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>65</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="2:3">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>75</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="2:3">
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>85</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="2:3">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>95</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="2:3">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:3">
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>110</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="2:3">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>7</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>120</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="2:3">
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>130</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="2:3">
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>9</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>135</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="2:3">
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>140</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="2:3">
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>145</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="2:3">
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>150</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="2:3">
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>160</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="2:3">
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>165</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="2:3">
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>170</v>
       </c>
     </row>
@@ -1333,125 +1299,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
-  <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="2:5">
-      <c r="B7" s="3">
-        <v>50</v>
-      </c>
-      <c r="C7" s="3">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
